--- a/Section 2/Entry Strategy Evaluation/Entry Strategy Evaluation Analysis.xlsx
+++ b/Section 2/Entry Strategy Evaluation/Entry Strategy Evaluation Analysis.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DONKAMS\Downloads\nestle-international-marketing-analysis\Section 2\Entry Strategy Evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A625704E-4854-4529-930A-65A59D2E53B2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84B6175B-4ED6-4388-854D-1C3C018C3529}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="65">
   <si>
     <t>Aspect</t>
   </si>
@@ -130,16 +131,112 @@
   </si>
   <si>
     <t>Nestlé remains committed to investing and growing in</t>
+  </si>
+  <si>
+    <t>Entry Date</t>
+  </si>
+  <si>
+    <t>Historical Context</t>
+  </si>
+  <si>
+    <t>Nestle's early presence through imports aligned with Nigeria's post-independence era, characterized by population growth and increasing demand for processed food.</t>
+  </si>
+  <si>
+    <t>Key Entry Strategies</t>
+  </si>
+  <si>
+    <t>1. Localization: Adaptation of global offerings to local tastes. 2. Distribution Network: Robust, inclusive distribution reaching remote areas. 3. Marketing and Branding: Targeted campaigns aligned with cultural nuances. 4. Investment in Local Production: Establishing factories, creating local jobs.</t>
+  </si>
+  <si>
+    <t>Market Impact</t>
+  </si>
+  <si>
+    <t>Challenges</t>
+  </si>
+  <si>
+    <t>Future Considerations</t>
+  </si>
+  <si>
+    <t>Continued adaptation, innovation, and diversification to meet evolving market dynamics and consumer preferences.</t>
+  </si>
+  <si>
+    <t>1. Market Share and Revenue: Dominant across FMCG categories. 2. Brand Recognition: Strong brand synonymous with quality. 3. Economic and Social Impact: Significant contributions to job creation and local economy.</t>
+  </si>
+  <si>
+    <t>1. Intensifying Competition: Local and international rivals. 2. Economic Fluctuations: Impact of instability and currency fluctuations. 3. Shifting Consumer Preferences: Need for continuous adaptation to healthier and sustainable trends.</t>
+  </si>
+  <si>
+    <t>Summary</t>
+  </si>
+  <si>
+    <t>Historical Timeline</t>
+  </si>
+  <si>
+    <t>- 1912: Anglo-Swiss Condensed Milk Company established in Penang. - 1962: First factory in Petaling Jaya. - 1970s-Present: Market leadership with iconic brands and diversification.</t>
+  </si>
+  <si>
+    <t>Success Factors</t>
+  </si>
+  <si>
+    <t>- Early Entry and Legacy: Fostered brand recognition and trust. - Product Localization and Innovation: Adapted to local preferences, obtained Halal certification. - Distribution Network and Infrastructure: Established robust network for market penetration. - Effective Marketing and Branding: Strategic campaigns built brand loyalty. - Strong Relationships and Partnerships: Local collaborations for market insights.</t>
+  </si>
+  <si>
+    <t>- Intense Competition: Demanded continuous innovation and differentiation. - Economic Fluctuations: Currency variations and economic downturns impacted affordability. - Changing Consumer Preferences: Shifts in health and environmental concerns required adaptation.</t>
+  </si>
+  <si>
+    <t>Evaluation</t>
+  </si>
+  <si>
+    <t>- Success: Market leadership, brand loyalty, and consistent financial performance. - Agility: Ability to adapt to challenges showcases market resilience.</t>
+  </si>
+  <si>
+    <t>Nestle in Nigeria</t>
+  </si>
+  <si>
+    <t>Nestle in Malaysia</t>
+  </si>
+  <si>
+    <t>1961: Official entry following early imports</t>
+  </si>
+  <si>
+    <t>1912: Anglo-Swiss Condensed Milk Company established</t>
+  </si>
+  <si>
+    <t>1962: Inauguration of the first factory in Petaling Jaya</t>
+  </si>
+  <si>
+    <t>Localization, Distribution Network, Marketing, Local Production</t>
+  </si>
+  <si>
+    <t>Early Entry, Product Localization, Distribution, Marketing, Partnerships</t>
+  </si>
+  <si>
+    <t>Intensifying Competition, Economic Fluctuations, Shifting Consumer Preferences</t>
+  </si>
+  <si>
+    <t>Intense Competition, Economic Fluctuations, Changing Consumer Preferences</t>
+  </si>
+  <si>
+    <t>Dominant market share, Economic and Social Impact</t>
+  </si>
+  <si>
+    <t>Market leadership, Agility in adapting to challenges</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -201,6 +298,40 @@
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{AD3451B6-986A-4AFD-B734-91FAF09C70F0}" name="Aspect"/>
     <tableColumn id="2" xr3:uid="{64FB10A8-C8FF-4497-9EF6-E9C50F1729F6}" name="Details"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1EECCA5F-07AF-44FD-9C37-DDB7955A1119}" name="Table1" displayName="Table1" ref="A1:B7" totalsRowShown="0">
+  <autoFilter ref="A1:B7" xr:uid="{EABD0961-8D18-48F5-8000-360468806BA4}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{21C9C19A-DBA0-45BF-8721-B490CB544163}" name="Aspect"/>
+    <tableColumn id="2" xr3:uid="{60D43C7C-1B5B-4BA8-9BBF-E0705D0D2662}" name="Details"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BF46F216-8CD3-4ECB-A9B3-7CCC1B775570}" name="Table2" displayName="Table2" ref="E1:F5" totalsRowShown="0">
+  <autoFilter ref="E1:F5" xr:uid="{1100C9D6-AB7F-48FC-8732-D4261E0A33F2}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{73C48F62-5305-49A9-BA7A-DBF79490D6D9}" name="Aspect"/>
+    <tableColumn id="2" xr3:uid="{52A59C1D-8389-4D26-8F63-263BFBE66DF2}" name="Summary"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{7B0A02F0-9DBE-4FAA-B451-CCC3C3C101E6}" name="Table5" displayName="Table5" ref="Z4:AB9" totalsRowShown="0">
+  <autoFilter ref="Z4:AB9" xr:uid="{EDB916F9-0597-4D65-AC48-E7FEEE4DF45C}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{98A616F4-D463-459C-A1D3-E46DBBDC9514}" name="Aspect"/>
+    <tableColumn id="2" xr3:uid="{4B9E33AA-0AC2-4E8A-8FDE-A88BC7650CEB}" name="Nestle in Nigeria"/>
+    <tableColumn id="3" xr3:uid="{A8354606-C6C6-4ED6-9E3F-3BCE174F4F2E}" name="Nestle in Malaysia"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -471,8 +602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -633,4 +764,173 @@
     <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D70DEB96-7F22-4F75-B486-ED511014D599}">
+  <dimension ref="A1:AB9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="W6" sqref="W6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="74.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="71.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2">
+        <v>1961</v>
+      </c>
+      <c r="E2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="Z8" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="Z9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="3">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+  </tableParts>
+</worksheet>
 </file>